--- a/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_02_end.xlsx
+++ b/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_02_end.xlsx
@@ -1064,11 +1064,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Ohh! Under this time of the sky, you'd be utterly blind if you didn't carry a lantern!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Master, dare I ask, have you ventured beyond the village before?
+    <t xml:space="preserve">[name="Mr. Nothing"]Ohh! Under this time of the sky, you'd be utterly blind if you didn't carry a lantern!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Master, dare I ask, have you ventured beyond the village before?
 </t>
   </si>
   <si>
@@ -1076,7 +1076,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Ahahah, I... I was quite drunk at the time, and when I came to, I found myself lying down already in the guesthouse with my companions.
+    <t xml:space="preserve">[name="Mr. Nothing"]Ahahah, I... I was quite drunk at the time, and when I came to, I found myself lying down already in the guesthouse with my companions.
 </t>
   </si>
   <si>
@@ -1088,7 +1088,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]B—By demons, you mean those monsters, right? Might you know the true face of those things, dear Master?
+    <t xml:space="preserve">[name="Mr. Nothing"]B—By demons, you mean those monsters, right? Might you know the true face of those things, dear Master?
 </t>
   </si>
   <si>
@@ -1096,7 +1096,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Ink? Ah, because they all fade away as puddles of sewage? Quite the snug analogy. Such is the prowess of a Great Master!
+    <t xml:space="preserve">[name="Mr. Nothing"]Ink? Ah, because they all fade away as puddles of sewage? Quite the snug analogy. Such is the prowess of a Great Master!
 </t>
   </si>
   <si>
@@ -1104,7 +1104,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]How modest, how modest.
+    <t xml:space="preserve">[name="Mr. Nothing"]How modest, how modest.
 </t>
   </si>
   <si>
@@ -1116,7 +1116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Not at all, not at all. I've never heard of any Dusk Ridding like this at the new year, and needless to say I've never met those Ink Spirits before.
+    <t xml:space="preserve">[name="Mr. Nothing"]Not at all, not at all. I've never heard of any Dusk Ridding like this at the new year, and needless to say I've never met those Ink Spirits before.
 </t>
   </si>
   <si>
@@ -1124,7 +1124,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Well! Then we can count ourselves sorely unlucky... arriving here to immediately see the Ink Spirits attack the village... It's fortunate it didn't last long, or else I might've been finished right here.
+    <t xml:space="preserve">[name="Mr. Nothing"]Well! Then we can count ourselves sorely unlucky... arriving here to immediately see the Ink Spirits attack the village... It's fortunate it didn't last long, or else I might've been finished right here.
 </t>
   </si>
   <si>
@@ -1132,11 +1132,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]How would I? Even if I had that capability, it wouldn't—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]—Hold on, the Ink Spirits you're talking about. Do they usually leave Mount Hung-tung? Could lone Ink Spirits happen to stray near?
+    <t xml:space="preserve">[name="Mr. Nothing"]How would I? Even if I had that capability, it wouldn't—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]—Hold on, the Ink Spirits you're talking about. Do they usually leave Mount Hung-tung? Could lone Ink Spirits happen to stray near?
 </t>
   </si>
   <si>
@@ -1144,7 +1144,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]So you mean, if you see one, that means there's a whole gaggle?
+    <t xml:space="preserve">[name="Mr. Nothing"]So you mean, if you see one, that means there's a whole gaggle?
 </t>
   </si>
   <si>
@@ -1152,7 +1152,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Th—Then we'd better be on our ways...
+    <t xml:space="preserve">[name="Mr. Nothing"]Th—Then we'd better be on our ways...
 </t>
   </si>
   <si>
@@ -1192,7 +1192,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kroos"]'Tsui', 'Ch'ing', 'Lou'. Those are some real pretty Yen words. You can read 'em?
+    <t xml:space="preserve">[name="Kroos"]'Tsui', 'Ch'ing', 'Lou.' Those are some real pretty Yen words. You can read 'em?
 </t>
   </si>
   <si>
@@ -1232,7 +1232,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]M—Master, could we perhaps pick up the pace?
+    <t xml:space="preserve">[name="Mr. Nothing"]M—Master, could we perhaps pick up the pace?
 </t>
   </si>
   <si>
@@ -1240,7 +1240,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]But—eek—didn't something just fly past the eaves?!
+    <t xml:space="preserve">[name="Mr. Nothing"]But—eek—didn't something just fly past the eaves?!
 </t>
   </si>
   <si>
@@ -1248,7 +1248,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I—I'll help!
+    <t xml:space="preserve">[name="Mr. Nothing"]I—I'll help!
 </t>
   </si>
   <si>
@@ -1316,7 +1316,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]M—My benefactors!
+    <t xml:space="preserve">[name="Mr. Nothing"]M—My benefactors!
 </t>
   </si>
   <si>
@@ -1324,7 +1324,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Now now now, Master, Master, the self-introduction can wait! Those Ink Spirits have plunged straight into the village!
+    <t xml:space="preserve">[name="Mr. Nothing"]Now now now, Master, Master, the self-introduction can wait! Those Ink Spirits have plunged straight into the village!
 </t>
   </si>
   <si>
@@ -1348,7 +1348,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Benefactor, I feel this time might be somewhat different...
+    <t xml:space="preserve">[name="Mr. Nothing"]Benefactor, I feel this time might be somewhat different...
 </t>
   </si>
   <si>
@@ -1356,7 +1356,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]They're, well, er, a bit of a... horde?
+    <t xml:space="preserve">[name="Mr. Nothing"]They're, well, er, a bit of a... horde?
 </t>
   </si>
   <si>
